--- a/LR12/LR12.xlsx
+++ b/LR12/LR12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="152">
   <si>
     <t>Наименование</t>
   </si>
@@ -287,9 +287,6 @@
   </si>
   <si>
     <t>протестирован, ошибок нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://github.com/TOPGreen</t>
   </si>
   <si>
     <t>Уровни доступа пользователей</t>
@@ -307,10 +304,6 @@
   </si>
   <si>
     <t>Аутентификация пользователей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/TOPGreen
-</t>
   </si>
   <si>
     <t>Database</t>
@@ -1413,23 +1406,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1781,7 +1774,7 @@
   <dimension ref="A1:AS24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1808,7 +1801,7 @@
       <c r="B2" s="75"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1829,7 +1822,7 @@
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1908,7 +1901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="80"/>
       <c r="B10" s="81" t="s">
         <v>85</v>
@@ -1927,20 +1920,20 @@
         <v>87</v>
       </c>
       <c r="H10" s="13"/>
-      <c r="I10" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="82" t="s">
-        <v>88</v>
+      <c r="I10" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="99" t="s">
+        <v>144</v>
       </c>
       <c r="K10" s="124"/>
       <c r="L10" s="14"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="80"/>
       <c r="B11" s="81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="15">
         <v>1</v>
@@ -1956,20 +1949,20 @@
         <v>87</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>90</v>
+      <c r="I11" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="99" t="s">
+        <v>144</v>
       </c>
       <c r="K11" s="125"/>
       <c r="L11" s="14"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="80"/>
       <c r="B12" s="81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="84">
         <v>2</v>
@@ -1985,11 +1978,11 @@
         <v>87</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>92</v>
+      <c r="I12" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>91</v>
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="14"/>
@@ -1998,7 +1991,7 @@
     <row r="13" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="80"/>
       <c r="B13" s="81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="15">
         <v>1</v>
@@ -2014,11 +2007,11 @@
         <v>87</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="82" t="s">
-        <v>94</v>
+      <c r="I13" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="99" t="s">
+        <v>89</v>
       </c>
       <c r="K13" s="126"/>
       <c r="L13" s="14"/>
@@ -2161,6 +2154,16 @@
   <mergeCells count="1">
     <mergeCell ref="K10:K13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I12" r:id="rId1"/>
+    <hyperlink ref="I11" r:id="rId2"/>
+    <hyperlink ref="J11" r:id="rId3"/>
+    <hyperlink ref="J12" r:id="rId4"/>
+    <hyperlink ref="I10" r:id="rId5"/>
+    <hyperlink ref="J10" r:id="rId6"/>
+    <hyperlink ref="I13" r:id="rId7"/>
+    <hyperlink ref="J13" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2187,27 +2190,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="91" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="96"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="130"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
       <c r="E2" s="92">
         <v>43955</v>
       </c>
@@ -2224,11 +2227,11 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
       <c r="E3" s="93"/>
       <c r="F3" s="73"/>
       <c r="G3" s="90"/>
@@ -2238,10 +2241,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
+        <v>94</v>
+      </c>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="94"/>
       <c r="F4" s="73"/>
       <c r="G4" s="90"/>
@@ -2251,10 +2254,10 @@
     <row r="5" spans="1:10" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+        <v>95</v>
+      </c>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
       <c r="E5" s="94"/>
       <c r="F5" s="73"/>
       <c r="G5" s="90"/>
@@ -2264,10 +2267,10 @@
     <row r="6" spans="1:10" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
+        <v>96</v>
+      </c>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
       <c r="E6" s="94"/>
       <c r="F6" s="73"/>
       <c r="G6" s="90"/>
@@ -2277,10 +2280,10 @@
     <row r="7" spans="1:10" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
+        <v>97</v>
+      </c>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
       <c r="E7" s="94"/>
       <c r="F7" s="73"/>
       <c r="G7" s="90"/>
@@ -2289,11 +2292,11 @@
     </row>
     <row r="8" spans="1:10" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
       <c r="E8" s="93"/>
       <c r="F8" s="73"/>
       <c r="G8" s="90"/>
@@ -2303,10 +2306,10 @@
     <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
+        <v>99</v>
+      </c>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="94"/>
       <c r="F9" s="73"/>
       <c r="G9" s="90"/>
@@ -2316,10 +2319,10 @@
     <row r="10" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="127" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="127"/>
+      <c r="C10" s="132" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="132"/>
       <c r="E10" s="94"/>
       <c r="F10" s="73"/>
       <c r="G10" s="90"/>
@@ -2329,10 +2332,10 @@
     <row r="11" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="127"/>
+      <c r="C11" s="132" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="132"/>
       <c r="E11" s="94"/>
       <c r="F11" s="73"/>
       <c r="G11" s="90"/>
@@ -2342,10 +2345,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="127" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="127"/>
+      <c r="C12" s="132" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="132"/>
       <c r="E12" s="94"/>
       <c r="F12" s="73"/>
       <c r="G12" s="90"/>
@@ -2354,11 +2357,11 @@
     </row>
     <row r="13" spans="1:10" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
       <c r="E13" s="95"/>
       <c r="F13" s="73"/>
       <c r="G13" s="90"/>
@@ -2368,10 +2371,10 @@
     <row r="14" spans="1:10" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
+        <v>104</v>
+      </c>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="94"/>
       <c r="F14" s="73"/>
       <c r="G14" s="90"/>
@@ -2381,10 +2384,10 @@
     <row r="15" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="127"/>
+      <c r="C15" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="132"/>
       <c r="E15" s="94"/>
       <c r="F15" s="73"/>
       <c r="G15" s="90"/>
@@ -2395,17 +2398,17 @@
     <row r="16" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="127"/>
+      <c r="C16" s="132" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="132"/>
       <c r="E16" s="120"/>
       <c r="F16" s="73"/>
       <c r="G16" s="90">
         <v>1</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>3</v>
@@ -2415,10 +2418,10 @@
     <row r="17" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
+        <v>109</v>
+      </c>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="94"/>
       <c r="F17" s="73"/>
       <c r="G17" s="90"/>
@@ -2429,10 +2432,10 @@
     <row r="18" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="127"/>
+      <c r="C18" s="132" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="132"/>
       <c r="E18" s="94"/>
       <c r="F18" s="73"/>
       <c r="G18" s="90"/>
@@ -2443,10 +2446,10 @@
     <row r="19" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
+        <v>111</v>
+      </c>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
       <c r="E19" s="94"/>
       <c r="F19" s="73"/>
       <c r="G19" s="90"/>
@@ -2457,10 +2460,10 @@
     <row r="20" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="127"/>
+      <c r="C20" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="132"/>
       <c r="E20" s="94"/>
       <c r="F20" s="73"/>
       <c r="G20" s="90"/>
@@ -2470,11 +2473,11 @@
     </row>
     <row r="21" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
       <c r="E21" s="95"/>
       <c r="F21" s="73"/>
       <c r="G21" s="90"/>
@@ -2485,10 +2488,10 @@
     <row r="22" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+        <v>114</v>
+      </c>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
       <c r="E22" s="94"/>
       <c r="F22" s="73"/>
       <c r="G22" s="90"/>
@@ -2499,17 +2502,17 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
+        <v>115</v>
+      </c>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
       <c r="E23" s="120"/>
       <c r="F23" s="73"/>
       <c r="G23" s="90">
         <v>2</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I23" s="110" t="s">
         <v>3</v>
@@ -2519,10 +2522,10 @@
     <row r="24" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
+        <v>116</v>
+      </c>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
       <c r="E24" s="94"/>
       <c r="F24" s="73"/>
       <c r="G24" s="90"/>
@@ -2533,10 +2536,10 @@
     <row r="25" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
+        <v>117</v>
+      </c>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
       <c r="E25" s="94"/>
       <c r="F25" s="73"/>
       <c r="G25" s="90"/>
@@ -2547,10 +2550,10 @@
     <row r="26" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
+        <v>118</v>
+      </c>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
       <c r="E26" s="24"/>
       <c r="F26" s="73"/>
       <c r="G26" s="90"/>
@@ -2561,10 +2564,10 @@
     <row r="27" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="86"/>
       <c r="B27" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
+        <v>119</v>
+      </c>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="24"/>
       <c r="F27" s="73"/>
       <c r="G27" s="90"/>
@@ -4041,24 +4044,11 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="27">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
@@ -4068,6 +4058,19 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -4079,7 +4082,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4096,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="28"/>
@@ -4115,7 +4118,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="32"/>
@@ -4147,7 +4150,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
@@ -4175,7 +4178,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="43"/>
@@ -4280,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="101"/>
@@ -4295,10 +4298,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D13" s="101" t="s">
         <v>47</v>
@@ -4306,7 +4309,7 @@
       <c r="E13" s="102"/>
       <c r="F13" s="102"/>
       <c r="G13" s="79" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H13" s="63"/>
     </row>
@@ -4316,10 +4319,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14" s="114"/>
       <c r="E14" s="114" t="s">
@@ -4327,7 +4330,7 @@
       </c>
       <c r="F14" s="114"/>
       <c r="G14" s="76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H14" s="115">
         <v>1</v>
@@ -4429,7 +4432,7 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://github.com/KizhaevaMaria"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
@@ -4440,8 +4443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4458,7 +4461,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="28"/>
@@ -4477,7 +4480,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="32"/>
@@ -4509,7 +4512,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="28"/>
@@ -4537,7 +4540,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="43"/>
@@ -4643,10 +4646,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" s="62" t="s">
         <v>47</v>
@@ -4654,7 +4657,7 @@
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H12" s="79"/>
     </row>
@@ -4664,10 +4667,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62" t="s">
@@ -4675,7 +4678,7 @@
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="79" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13" s="79">
         <v>2</v>
@@ -4686,10 +4689,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="62" t="s">
         <v>47</v>
@@ -4697,7 +4700,7 @@
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H14" s="79"/>
     </row>
@@ -4706,10 +4709,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="62" t="s">
         <v>47</v>
@@ -4717,7 +4720,7 @@
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="79" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H15" s="79"/>
     </row>
@@ -4726,10 +4729,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" s="79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>47</v>
@@ -4737,7 +4740,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H16" s="21"/>
     </row>
@@ -4746,10 +4749,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>47</v>
@@ -4757,32 +4760,32 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H17" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" s="139"/>
       <c r="E20" s="139"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C21" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="140" t="s">
         <v>136</v>
-      </c>
-      <c r="D21" s="140" t="s">
-        <v>138</v>
       </c>
       <c r="E21" s="141"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C22" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="141"/>
       <c r="E22" s="141"/>
@@ -4790,13 +4793,13 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C23" s="112"/>
       <c r="D23" s="142" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E23" s="143"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="139"/>
       <c r="E24" s="139"/>
@@ -4808,7 +4811,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D26" s="139"/>
       <c r="E26" s="139"/>
@@ -4816,13 +4819,13 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27" s="111"/>
       <c r="D27" s="139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E27" s="139"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D28" s="139"/>
       <c r="E28" s="139"/>
@@ -4830,13 +4833,13 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29" s="111"/>
       <c r="D29" s="139" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" s="139"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" s="139"/>
       <c r="E30" s="139"/>
@@ -4848,13 +4851,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
@@ -4863,6 +4859,13 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -4889,7 +4892,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" s="146"/>
       <c r="D1" s="147"/>
@@ -4913,13 +4916,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5015,7 +5018,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5023,7 +5026,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="148" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="149"/>
       <c r="D12" s="149"/>
@@ -5065,7 +5068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
@@ -5076,7 +5079,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="145" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C1" s="146"/>
       <c r="D1" s="147"/>
@@ -5100,13 +5103,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5202,7 +5205,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5210,7 +5213,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="149"/>
       <c r="D12" s="149"/>
@@ -5288,7 +5291,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="150" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" s="150"/>
       <c r="D4" s="150"/>
@@ -5392,7 +5395,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
